--- a/report.xlsx
+++ b/report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Topic name</t>
   </si>
@@ -34,19 +34,32 @@
   </si>
   <si>
     <t>Word Embeding</t>
+  </si>
+  <si>
+    <t>https://medium.com/hackernoon/stepping-into-nlp-word2vec-with-gensim-e7c54d9a450a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Word Vector captured the context of a word in a document 2.Word2Vec is one of the popular way of word embeding.                    3. Two way of implementing word to vector is Skip Gram and Common Bag of Words(CBOW).CBOW input is context and output is target word.                                                      4. Skip Gram: input is word and output is the context.                      5. Words are being clustured according to their context.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,16 +79,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,19 +396,20 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -399,13 +425,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="210">
+      <c r="A2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/report.xlsx
+++ b/report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Topic name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 1.Word Vector captured the context of a word in a document 2.Word2Vec is one of the popular way of word embeding.                    3. Two way of implementing word to vector is Skip Gram and Common Bag of Words(CBOW).CBOW input is context and output is target word.                                                      4. Skip Gram: input is word and output is the context.                      5. Words are being clustured according to their context.</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -404,11 +407,11 @@
     <col min="1" max="1" width="26" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -422,10 +425,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="210">
+    <row r="2" spans="1:6" ht="210">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>

--- a/report.xlsx
+++ b/report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Topic name</t>
   </si>
@@ -43,13 +43,34 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Submission date</t>
+  </si>
+  <si>
+    <t>1 day delay. Though I have read it on 06/01/2020 I could not finish it.</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/word2vec-for-phrases-learning-embeddings-for-more-than-one-word-727b6cf723cf</t>
+  </si>
+  <si>
+    <t>1. In word2Vec words are clustered based on their relation with other words not only using count.2.  V(“King”)-V(“Man”)+V(“Woman) ~= V(“Queen”) and V(“Paris”)-V(“France)+V(“Spain”) ~= V(“Madrid”). Interesting.                    2.Mutual Information (MI)
+Mutual information between two random variables X and Y is a measure of the dependence between X and Y. Formally:
+Mutual Information (MI) of random variables X and Y.                                                                                                                                                                                                                                              
+                                                                                                                                                                                                                                                                     In our case, X and Y represents all bi-grams in corpus such that y comes right after x.                          3. Point wise mutual Information                                   4. Normalized Point Wise Mutual Information(NPMI).                                                               5.</t>
+  </si>
+  <si>
+    <t>How this calculation is working?                         2.How lower threshold helps to construct higher grams?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +85,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,18 +124,31 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -109,6 +157,87 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>39969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="1-_cKLD7DLm_wWND6XQb_i9Q.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="8801101"/>
+          <a:ext cx="1752600" cy="420968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2808817</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2035175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1185333</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2936138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="1-GiOqNFlWcReu3xbeh2p2Uw.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6561667" y="5502275"/>
+          <a:ext cx="2815166" cy="900963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,50 +525,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="63">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="210">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="210">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5">
+        <v>43983</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44032</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="255">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -448,6 +611,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
